--- a/ride_sharing_framework/4_Solutions/NYC/output_analysis/output.xlsx
+++ b/ride_sharing_framework/4_Solutions/NYC/output_analysis/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,443 +484,51 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11 19 27 30 72 105 159 174 184 187 228 230 259 266 289 291</t>
+          <t>19 28 39 60 62 107 110 111 125 142 150 153 188 210 220 265 268 277 286 296</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>97260</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13 21 34 43 52 60 67 75 80 111 113 130 133</t>
+          <t>15 48 56 81 112 126 127 135 137 138 242 246 275 276 280 281 289</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>50845</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>29 39 44 73 92 117 131 147 200 232 275 298</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38896</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5 20 24 53 90 110 120 152 163 173 199 224 237 238 246 253 280 281</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62</v>
-      </c>
-      <c r="G5" t="n">
-        <v>64195</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3 8 15 33 50 77 94 106 127 128 132 160 164 218 221</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>102</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>98044</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>300</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1316</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>300</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>63 65 69 84 122 126 168 172 198 203 209 244 274 282 284 296</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>16</v>
-      </c>
-      <c r="E8" t="n">
-        <v>72</v>
-      </c>
-      <c r="F8" t="n">
-        <v>44</v>
-      </c>
-      <c r="G8" t="n">
-        <v>62450</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>300</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17 45 49 74 100 101 108 109 136 141 142 166 188 189 191 223 279 292</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" t="n">
-        <v>104</v>
-      </c>
-      <c r="F9" t="n">
-        <v>98</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100204</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>300</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1 54 56 57 96 118 121 129 185 194 226 294</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>107</v>
-      </c>
-      <c r="F10" t="n">
-        <v>78</v>
-      </c>
-      <c r="G10" t="n">
-        <v>65918</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>300</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>42 48 59 79 91 98 107 125 143 161 182 186 205 208 220 252 257 258 262</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>19</v>
-      </c>
-      <c r="E11" t="n">
-        <v>116</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>130429</v>
-      </c>
-      <c r="H11" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>300</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6 10 12 31 58 62 70 99 103 115 167 169 170 181 207 219 240 247 269 285 300</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>72</v>
-      </c>
-      <c r="G12" t="n">
-        <v>69476</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>300</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16 22 32 41 46 71 86 93 95 119 138 227 236 248 251 297</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>16</v>
-      </c>
-      <c r="E13" t="n">
-        <v>96</v>
-      </c>
-      <c r="F13" t="n">
-        <v>66</v>
-      </c>
-      <c r="G13" t="n">
-        <v>80932</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>300</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>14 25 35 37 51 88 89 114 123 124 144 149 150 151 153 225</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" t="n">
-        <v>106</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>111595</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>300</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7 18 26 78 157 165 183 195 196 211 233 241 242 265 299</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>57</v>
-      </c>
-      <c r="F15" t="n">
-        <v>54</v>
-      </c>
-      <c r="G15" t="n">
-        <v>152729</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>300</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2 9 55 66 68 82 102 148 202 204 243 245 254 267 270</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>72676</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>300</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4 61 64 76 81 112 116 134 140 177 178 229 234 264</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>89</v>
-      </c>
-      <c r="F17" t="n">
-        <v>76</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64320</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
